--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -546,7 +546,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H2">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I2">
         <v>0.9943843705197677</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.589876666666667</v>
+        <v>15.39028033333333</v>
       </c>
       <c r="N2">
-        <v>28.76963</v>
+        <v>46.170841</v>
       </c>
       <c r="O2">
-        <v>0.09849849253941528</v>
+        <v>0.126880902638648</v>
       </c>
       <c r="P2">
-        <v>0.09849849253941528</v>
+        <v>0.1268809026386479</v>
       </c>
       <c r="Q2">
-        <v>14.38931904540778</v>
+        <v>23.09264880166323</v>
       </c>
       <c r="R2">
-        <v>129.50387140867</v>
+        <v>207.833839214969</v>
       </c>
       <c r="S2">
-        <v>0.0979453615009525</v>
+        <v>0.1261683865013119</v>
       </c>
       <c r="T2">
-        <v>0.09794536150095251</v>
+        <v>0.1261683865013119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,7 +608,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H3">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I3">
         <v>0.9943843705197677</v>
@@ -629,10 +629,10 @@
         <v>43.654346</v>
       </c>
       <c r="O3">
-        <v>0.1494592483043422</v>
+        <v>0.1199653873443598</v>
       </c>
       <c r="P3">
-        <v>0.1494592483043422</v>
+        <v>0.1199653873443598</v>
       </c>
       <c r="Q3">
         <v>21.83400733039045</v>
@@ -641,10 +641,10 @@
         <v>196.506065973514</v>
       </c>
       <c r="S3">
-        <v>0.148619940543471</v>
+        <v>0.1192917061785814</v>
       </c>
       <c r="T3">
-        <v>0.148619940543471</v>
+        <v>0.1192917061785813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,7 +670,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H4">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I4">
         <v>0.9943843705197677</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.969683</v>
+        <v>26.91905733333333</v>
       </c>
       <c r="N4">
-        <v>50.909049</v>
+        <v>80.757172</v>
       </c>
       <c r="O4">
-        <v>0.1742971523483349</v>
+        <v>0.2219267107979373</v>
       </c>
       <c r="P4">
-        <v>0.1742971523483349</v>
+        <v>0.2219267107979372</v>
       </c>
       <c r="Q4">
-        <v>25.462494594449</v>
+        <v>40.39122898392755</v>
       </c>
       <c r="R4">
-        <v>229.162451350041</v>
+        <v>363.521060855348</v>
       </c>
       <c r="S4">
-        <v>0.1733183641212871</v>
+        <v>0.2206804526183294</v>
       </c>
       <c r="T4">
-        <v>0.1733183641212871</v>
+        <v>0.2206804526183294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,7 +732,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H5">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I5">
         <v>0.9943843705197677</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.753800999999999</v>
+        <v>2.862015333333333</v>
       </c>
       <c r="N5">
-        <v>17.261403</v>
+        <v>8.586046</v>
       </c>
       <c r="O5">
-        <v>0.05909781163731825</v>
+        <v>0.02359509255152949</v>
       </c>
       <c r="P5">
-        <v>0.05909781163731825</v>
+        <v>0.02359509255152949</v>
       </c>
       <c r="Q5">
-        <v>8.633403868536332</v>
+        <v>4.294367193201556</v>
       </c>
       <c r="R5">
-        <v>77.70063481682699</v>
+        <v>38.649304738814</v>
       </c>
       <c r="S5">
-        <v>0.05876594022407051</v>
+        <v>0.02346259125420832</v>
       </c>
       <c r="T5">
-        <v>0.05876594022407052</v>
+        <v>0.02346259125420832</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,7 +794,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H6">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I6">
         <v>0.9943843705197677</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.66031899999999</v>
+        <v>45.09206633333333</v>
       </c>
       <c r="N6">
-        <v>106.980957</v>
+        <v>135.276199</v>
       </c>
       <c r="O6">
-        <v>0.3662703689593507</v>
+        <v>0.3717490490295674</v>
       </c>
       <c r="P6">
-        <v>0.3662703689593507</v>
+        <v>0.3717490490295674</v>
       </c>
       <c r="Q6">
-        <v>53.50722696315699</v>
+        <v>67.65927774048789</v>
       </c>
       <c r="R6">
-        <v>481.5650426684129</v>
+        <v>608.9334996643911</v>
       </c>
       <c r="S6">
-        <v>0.364213530277687</v>
+        <v>0.3696614441105887</v>
       </c>
       <c r="T6">
-        <v>0.364213530277687</v>
+        <v>0.3696614441105887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,7 +856,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H7">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I7">
         <v>0.9943843705197677</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.83551566666667</v>
+        <v>16.482191</v>
       </c>
       <c r="N7">
-        <v>44.506547</v>
+        <v>49.446573</v>
       </c>
       <c r="O7">
-        <v>0.1523769262112386</v>
+        <v>0.1358828576379581</v>
       </c>
       <c r="P7">
-        <v>0.1523769262112386</v>
+        <v>0.135882857637958</v>
       </c>
       <c r="Q7">
-        <v>22.26024124719144</v>
+        <v>24.73102763570634</v>
       </c>
       <c r="R7">
-        <v>200.342171224723</v>
+        <v>222.579248721357</v>
       </c>
       <c r="S7">
-        <v>0.1515212338522996</v>
+        <v>0.1351197898567481</v>
       </c>
       <c r="T7">
-        <v>0.1515212338522996</v>
+        <v>0.1351197898567481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,11 +921,11 @@
         <v>0.025421</v>
       </c>
       <c r="I8">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J8">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J8">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K8">
         <v>3</v>
       </c>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.589876666666667</v>
+        <v>15.39028033333333</v>
       </c>
       <c r="N8">
-        <v>28.76963</v>
+        <v>46.170841</v>
       </c>
       <c r="O8">
-        <v>0.09849849253941528</v>
+        <v>0.126880902638648</v>
       </c>
       <c r="P8">
-        <v>0.09849849253941528</v>
+        <v>0.1268809026386479</v>
       </c>
       <c r="Q8">
-        <v>0.08126141824777777</v>
+        <v>0.1304121054512222</v>
       </c>
       <c r="R8">
-        <v>0.7313527642300001</v>
+        <v>1.173708949061</v>
       </c>
       <c r="S8">
-        <v>0.000553131038462782</v>
+        <v>0.0007125161373360759</v>
       </c>
       <c r="T8">
-        <v>0.0005531310384627821</v>
+        <v>0.0007125161373360759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.025421</v>
       </c>
       <c r="I9">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J9">
         <v>0.005615629480232303</v>
-      </c>
-      <c r="J9">
-        <v>0.005615629480232304</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>43.654346</v>
       </c>
       <c r="O9">
-        <v>0.1494592483043422</v>
+        <v>0.1199653873443598</v>
       </c>
       <c r="P9">
-        <v>0.1494592483043422</v>
+        <v>0.1199653873443598</v>
       </c>
       <c r="Q9">
         <v>0.1233041255184444</v>
@@ -1013,10 +1013,10 @@
         <v>1.109737129666</v>
       </c>
       <c r="S9">
-        <v>0.0008393077608712242</v>
+        <v>0.0006736811657784741</v>
       </c>
       <c r="T9">
-        <v>0.0008393077608712243</v>
+        <v>0.0006736811657784741</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,11 +1045,11 @@
         <v>0.025421</v>
       </c>
       <c r="I10">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J10">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J10">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K10">
         <v>3</v>
       </c>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.969683</v>
+        <v>26.91905733333333</v>
       </c>
       <c r="N10">
-        <v>50.909049</v>
+        <v>80.757172</v>
       </c>
       <c r="O10">
-        <v>0.1742971523483349</v>
+        <v>0.2219267107979373</v>
       </c>
       <c r="P10">
-        <v>0.1742971523483349</v>
+        <v>0.2219267107979372</v>
       </c>
       <c r="Q10">
-        <v>0.143795437181</v>
+        <v>0.2281031188235555</v>
       </c>
       <c r="R10">
-        <v>1.294158934629</v>
+        <v>2.052928069412</v>
       </c>
       <c r="S10">
-        <v>0.0009787882270478505</v>
+        <v>0.001246258179607885</v>
       </c>
       <c r="T10">
-        <v>0.0009787882270478505</v>
+        <v>0.001246258179607885</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,11 +1107,11 @@
         <v>0.025421</v>
       </c>
       <c r="I11">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J11">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J11">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K11">
         <v>3</v>
       </c>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.753800999999999</v>
+        <v>2.862015333333333</v>
       </c>
       <c r="N11">
-        <v>17.261403</v>
+        <v>8.586046</v>
       </c>
       <c r="O11">
-        <v>0.05909781163731825</v>
+        <v>0.02359509255152949</v>
       </c>
       <c r="P11">
-        <v>0.05909781163731825</v>
+        <v>0.02359509255152949</v>
       </c>
       <c r="Q11">
-        <v>0.04875579174033332</v>
+        <v>0.02425176392955555</v>
       </c>
       <c r="R11">
-        <v>0.4388021256629999</v>
+        <v>0.218265875366</v>
       </c>
       <c r="S11">
-        <v>0.0003318714132477401</v>
+        <v>0.0001325012973211786</v>
       </c>
       <c r="T11">
-        <v>0.0003318714132477401</v>
+        <v>0.0001325012973211786</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,11 +1169,11 @@
         <v>0.025421</v>
       </c>
       <c r="I12">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J12">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J12">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K12">
         <v>3</v>
       </c>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.66031899999999</v>
+        <v>45.09206633333333</v>
       </c>
       <c r="N12">
-        <v>106.980957</v>
+        <v>135.276199</v>
       </c>
       <c r="O12">
-        <v>0.3662703689593507</v>
+        <v>0.3717490490295674</v>
       </c>
       <c r="P12">
-        <v>0.3662703689593507</v>
+        <v>0.3717490490295674</v>
       </c>
       <c r="Q12">
-        <v>0.3021736564329999</v>
+        <v>0.3820951394198888</v>
       </c>
       <c r="R12">
-        <v>2.719562907897</v>
+        <v>3.438856254779</v>
       </c>
       <c r="S12">
-        <v>0.002056838681663693</v>
+        <v>0.002087604918978762</v>
       </c>
       <c r="T12">
-        <v>0.002056838681663693</v>
+        <v>0.002087604918978763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,11 +1231,11 @@
         <v>0.025421</v>
       </c>
       <c r="I13">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J13">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J13">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K13">
         <v>3</v>
       </c>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.83551566666667</v>
+        <v>16.482191</v>
       </c>
       <c r="N13">
-        <v>44.506547</v>
+        <v>49.446573</v>
       </c>
       <c r="O13">
-        <v>0.1523769262112386</v>
+        <v>0.1358828576379581</v>
       </c>
       <c r="P13">
-        <v>0.1523769262112386</v>
+        <v>0.135882857637958</v>
       </c>
       <c r="Q13">
-        <v>0.1257112145874444</v>
+        <v>0.1396645924703333</v>
       </c>
       <c r="R13">
-        <v>1.131400931287</v>
+        <v>1.256981332233</v>
       </c>
       <c r="S13">
-        <v>0.0008556923589390137</v>
+        <v>0.0007630677812099264</v>
       </c>
       <c r="T13">
-        <v>0.0008556923589390138</v>
+        <v>0.0007630677812099264</v>
       </c>
     </row>
   </sheetData>
